--- a/ps5.xlsx
+++ b/ps5.xlsx
@@ -1778,13 +1778,13 @@
   </sheetPr>
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="225.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="225.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1825,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +1961,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +2017,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2057,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2073,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2097,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2137,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,7 +2153,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,7 +2217,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,7 +2241,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2257,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,7 +2265,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,7 +2361,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3009,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +3017,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,7 +3041,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +3097,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +3105,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3121,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3177,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3201,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +3209,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,7 +3265,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,7 +3313,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,7 +3337,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3409,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +3433,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3441,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3465,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,7 +3489,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,7 +3513,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,7 +3585,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +3641,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,7 +3705,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,7 +3721,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +3873,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,7 +3945,7 @@
         <v>270</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,7 +3953,7 @@
         <v>271</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +3961,7 @@
         <v>272</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ps5.xlsx
+++ b/ps5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="802">
   <si>
     <t xml:space="preserve">Treinamento</t>
   </si>
@@ -1641,6 +1641,1122 @@
     <t xml:space="preserve">fico feliz que o starfield vai rodar a 4k no ps5.
 via youtube</t>
   </si>
+  <si>
+    <t xml:space="preserve">é daqui a pouco, espero vocês! https://t.co/xwqg1kdtmb #twitch #twitchbr #twitchbrasil #livestream #streaming #videogame #ps5 #xbox  #pcgamer #games #gamerbr #liveontwitch #sony #playstation #streamon #liveon #streamernatwitch #twitch #meucanalnatwitch #afiliadotwich https://t.co/r60evjgadm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o único jogo do ps5 é demons souls?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@andersonandysp @b_cacace aí vc está completamente enganado em relação ao @officialpes no ps4 será a mesma coisa mas já no ps5 aí irá mudar tudo pq será um jogo novo já na nova engine unreal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@oguto27 e no ps5 teve o quê lançado só na next-gen? 🤔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@micalibruno acho que o título do segundo semestre vai ser horizon, god of war deve ficar para início de 2022 e mesmo em uma época de pandemia, o primeiro ano do ps5 já superaria em larga vantagem o que foi no ps4 em 2014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliquei sem querer no anúncio do ps5 e quase fiquei surda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @bonsoirmalek: só serei feliz quando eu tiver um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pai de ps5 https://t.co/cesgbgkqqb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu pai tá querendo compra um ps5 só pra mim não sair de casa kkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novo jogo da série deus ex é anunciando pra ps5 e xbox series https://t.co/b65n0gmazc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">só jogão ps5 sucesso total https://t.co/m9v9z8a4mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homem compra ps5 e tenta enganar esposa dizendo que o console era um roteador https://t.co/zy4wst2tp8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@misterj56569698 @dhominy00274063 @daniel_xbox127 @marcos03885 @huxley17644015 @windowsclubbr ps5 leva pau na maioria dos jogos , chega a apanhar até no loading que supostamente devia ser mais rápido pelo menos o dobro, mas o que importa é jogo cartoon que tem sombra menos densa e 6 fps a menos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dirapaescom solteira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabiofreire666 @physiquegamepl2 agora ele apelou pro pc kkkkkkkkkkkk ta vendo pq eu meti block ?? é burro demais cara kkkkkkkk da até vergonha alheia ler os comentários dele cara kkkkkkk não manja nada,quer falar de nova geração baseado em nada,pois nem ps5 ele tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é fácil conferir como o seu áudio é ouvido pelos membros da sua equipe no ps5 com o botão dedicado de monitoramento do microfone e os microfones com duplo cancelamento de ruído do headset sem fio pulse 3d: https://t.co/cvxlryraw0 https://t.co/9ypplztf9y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@lacrada_3 aqui no rio tá safe demais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e meu irmão q comprou um ps5 pra jogar um jogo de 2004 🤡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @canaldabella_: 👆oi, gente!
+um vídeo diferente no canal. fui na casa de um amigo que comprou o ps5 pra jogar um pouco. ele manja muito d…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@luizfom como joga no ps5? coloca o disco do ps4 e baixa o upgrade gratuito?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @kub0y4su: um  monte  pra  me  seguir  mas  ninguem  pra  me  dar  um  ps5
+os  de  verdade  eu  sei  quem  sao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @playstation_br: restaure as cores do mundo com um pincel mágico em chicory: a colorful tale, que chega para ps4 e ps5 ainda este ano! h…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu sei que o ps5 é gigante mas juro por deus, inicialmente achei q a foto era montagem 😂
+o negócio é imenso! https://t.co/3fn0dl2oap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @playstation_br: marvel's avengers chegou para ps5, com novidades imersivas para o controle dualsense, taxa de quadros por segundo melho…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serão muitos ps5 e cestas básicas https://t.co/sib5g3vrqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em modo playstation, entrámos na demo maiden para ficar a saber melhor o que podemos esperar do novo capítulo da saga #residentevil, que chega à #ps5​ em maio: https://t.co/5snnm3h4or
+(alguém quer arriscar o número de vezes que o gonçalo apanhou um susto enquanto jogava?) https://t.co/eqbmkrrkfk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@naca0rubronegra @cius__ @fuck_off_matt e vamos lembrar que os novos jogos da bethesda vao ser exclusivos do ps5. vão continuar jogando na retro games jogos antigos...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@vivikkjk vsfff te amooooooo parabéns pelo ps5 amor te amo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@gruboy6 hoje em dia é difícil saber se o menino está a ajudar a idosa a atravessar a rua ou se quer uma ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @paiaogames: ps5 tá como?😬 @pastorxbox @xboxopressor @maisxbox @siralysson @pressx18 https://t.co/h4hlc6be6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@llinikerpinho14 @avgtzmjoe @penelop_odyssey @joaodorojao @anarcovegana @muitoalemck_ @2casa11 @anarcoboiola @anay_rchist @mano_kobba @darioferrarij @ancaploide @tatianayousef à saúde porque isso não é tão importante pra você, assim como o ps5 não é. no fundo a propriedade privada é mais importante pra você que a saúde das outras pessoas. 
+se alguém roubasse você para comprar remédio pra um parente que está morrendo, o que você faria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wtf, baixei a versão de ps5 do avengers e meus dados simplesmente sumiram? o caralho que eu vou upar personagem do 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@macvms @julybeanx @sj_operador @jean_jcm @maiick_crf @g1 meu amigo tu nao fez essa comparação n é possível kkkkkkkkkkkkkkk esse só seria um argumento valido se o iphone funcionasse a pilhas
+uma comparação melhor seria um xbox ou ps5 vir sem fonte de alimentação, o q é ridículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yuna_br21 melhor versão pc&amp;gt;xbox series x&amp;gt;ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o primeiro título mostrado foi #outriders: um rpg de ação em 3a pessoa desenvolvido pelo mesmo estúdio de bulletstorm. o jogo é focado na campanha com um modo cooperativo de 4 jogadores e chega no dia 01/04 para ps4, ps5, xone, xsx/s e pc. https://t.co/yziqzpetka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o console playstation 5 foi desenvolvido com vários recursos e funções para atender às necessidades de acessibilidade: https://t.co/lzyitiqu6n https://t.co/rllztwkyhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@misterj56569698 @joecoolxbox vc passa o tempo todo falando de ps5 e debatendo isso, não sabe nem a diferença entre ray tracing em tempo real e ssr kkkkkkkkkkk e tem a cara de pau de me mostrar essa id de merda ? pqp que bosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi um tweet gringo. a mina comprou a caixa do ps5 e encheu com os papéis de "motivos do pq eu te amo".
+na boa, ato bonitinho e tal, mas se a minha mulher fizesse isso comigo, eu até aceitava o presente, mas ficava 1 dia inteiro com cara amarrada.
+(ps: xbox series x, pfv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonystas tentando fazer os updates dos jogos pro ps5 https://t.co/i0aus7xraa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pgeracoes @windowsclubbr eu sinceramente acho esse persona 5 uma merda, eu não aguentei jogar 1 hora desse jogo, nesse jogo tu mais fala doque joga, tbm porque não gosto de jogo em que a batalha é por turno, joguei no meu ps5 dó pq deram na psn plus collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguinte galera!
+vou abrir uma live hoje (já já) jogando com o meu cunhado. vamos jogar #warzone e talvez um #apexlegends, eu no #xbox e ele no #ps5 !
+quem quiser e puder, cola lá pra a gente bater um papo e rir um pouco! 
+https://t.co/qxzdzjh4bq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@tmpezz @brunomandaaqw @azzevedo_matths @jogosquequero ja jogou no ps5? eu tenho um, e te garanto que é 120 fps 4k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabiofreire666 @diegolt85 estranho  qd dirt 5 tava cagado aceitaram as desculpas dos dev. agora a ubi assume a cagada no the division mas a culpa é do ps5?😅😀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">livezinha de cyberpunk agr a tarde no ps5 
+estou ao vivo na twitch! venha passar um tempo comigo! https://t.co/or4zqvj6nh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fuck_off_matt "sony ta ganhando com jogos de geraçao passada , isso q era o carro chefe da m$ ( retro kkk)  , imagina quando as desenvolvedoras começar focar so no ps5 .. ai a surra sera maior ainda .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mais fatos:
+https://t.co/w28ztczueh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no dia q a nubank aumenta meu limite em 500 conto eu compro ps5 parcelado nas casa bahia d 48x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @carloseduardocd: ➡️por hora é mais fácil desenvolver com o ps5. a mudança do xdk para o gdk demandou mais alterações na engine de contr…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hastadvalorant compra um ps5 boludo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fuck_off_matt e mesmo q isso fosse vdd q nào é vindo desse louco ,adiantou alguma coisa ter esses 12 teraflops sem jogo nenhum ?podia ser 15 q o ps5 ainda sim ganharia com 8 ou 9 q especulavamos q poderia ser,se foi 10 ,foi pensado antes desse console lixo pq sony não precisa de achismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@deusabutre777 @psonystas viagem? viajado sao vcs q so falam de retro. so disse ai q retro n tem valor nenhum. ate gta q era viciado n consegui jogar por estar ultrapassado  e vcs ai zuando ps5 n ter retro c ps2 🤣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@alemao182 compro tudo em ps5 dps vendo um pouco mais barato. perco uns 10% mas gasto  900 mil com calma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@cadianabral agora vemmmm o ps5 e fifa 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@playstation5co #ps5 crlo dlsc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @crfisa18: queria um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se não posso nem saber quem é ela,nem ter um ps5 esse mundo não é feito para mim!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu o ps5 preto e tão superior ao branco ... https://t.co/wkqeapet7u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabiofreire666 @diegolt85 😅😅 control esta c ray tracing. e ele sem rt ja era um jogo pesado,  e no serie x o modo foto dele ta forte 😁 pq resolução,  tamanho, ele ta melhor no ps5. entao a remedy sabe mais do q falando q vc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a que ponto chegamos? 🥴
+o cara mentiu para a esposa: disse que o ps5 na verdade era um roteador wi-fi.
+ainda chamou um técnico falso de telefonia.
+https://t.co/sfqjgoikt7 https://t.co/orpnxobzia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tô quase fazendo um empréstimo pra comprar um ps5 ou ps4 e deixando meu nome sujo, só se vive uma vez e eu ainda tenho 19 anos tem a vida inteira pra pagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dandonato96 demons é minha maior pendência da vida, mas um dia eu consigo comprar um ps5 pra jogar esse remaster 🙏🏻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mcflymaris dougie agora tem um ps5 não espero biscoitos tao cedo https://t.co/sp0kyfmasf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @gustavobananes: @broonaianz tô cogitando trocar o ps5 pelo xbox tá difícil manter 350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@beatriz22_ofc um ps5, um iphone 7 plus, obgd😍😌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yredskull1 @cristianflade vale ressaltar q o rotina faz sorteio pra cacete, so amanhã ele vai sortear 4 passes, e quarta ( se não me engano) ele sorteou 3.
+ ele vai participar de um sorteio de ps5 tbm, ent isso faz diferença.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu deus a vivi ganhando o ps5 metendo uma virada dessas no fifa pqp a mulher perfeita merece mt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pas_ps5 mas primeiro só veio sangue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confira r6- sorteio ps5 https://t.co/qymqzg9dov kkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yuna_br21 tá bom, continua jogando capado e pagando r$300 nos jogos no ps5 então</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hatefulgus @_evertroll mostra que o game foi projetado pra sair para aquele console. esses games foram projetados pra saírem pro sx? não né?
+eu não colocaria o miles morales, porque ele não foi lançado originalmente para o ps5 (se isso fosse acontecer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@playstation por gentileza me mandem um ps5 de graça, nunca pedi nada pra vcs😭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fuck_off_matt ps5 está arrebentando o console itx feito nas coxas. e pensar que diziam que o sx teria 15fps de vantagem sobre o ps5...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@iamvaldinar @fuck_off_matt é um erro do tradutor, normalmente os americanos tem o costume de colocar "tho" no encerramento de algumas frases, a tradução certa seria,  " a versão do ps5 tem sombra em melhor qualidade entretanto".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pacote assassin’s creed valhalla + immortals fenyx rising | ps4 &amp;amp; ps5 r$ 274,94
+oferta válida até 1/4
+https://t.co/nssf85fkvt https://t.co/qxa7ufosgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@detailsgmz eu fico chocada com as pessoas que fazem isso, não comprei um ps5 nem pra mim kkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nossa eu dava um ps5 https://t.co/pcgto7sfyh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">@guilherme_jarb sim, tudo recurso gráfico que pode muito bem ser adicionado depois, assim como vai acontecer com o upgrade de metro exodus.
+vai ter tudo isso que tu falou e não foi projetado pra nova gen. ou seja, ter sido lançado day one pro ps5 não faz diferença nenhuma ¯\_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ツ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)_/¯</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@meuplaystation amo o meu ps5 e o dualsense tbm, só que infelizmente o mais revolucionário foi o drift no analógico e a demora da assistência em resolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mas comprei ps5 para jogar gow ragnarok. https://t.co/vb6iupsnqn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scarlet nexus contará com smart delivery no xbox e terá opção de upgrade gratuito do ps4 e ps5, além de poder levar o save.
+então se você pretende jogar o jogo nos consoles de geração passada, pode comprar sem problema, que você atualiza pra geração atual de boa. https://t.co/i4quwj4zee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pas_ps5 vem de deboche não tá, sou insuportável só as vezes....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@lucasfdjulio bom, alegria de pobre dura pouco. agora sei que vai sair somente para ps5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @playstation_br: a realidade virtual da próxima geração terá um novo controle para ps5 em formato de "orbe", projetado para maximizar a…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@eumsm935 eu não acho beleza algo que não importe muito, vc já viu o ps5 deitado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pes_brasil caça níquel purinho. se der mole tu gasta um ps5 pra tentar esses iconics e fica com 500 bola prata. tinha que pelo menos deixar bola ouro pra cima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@eyyu_01 @magnetoheroi @raffaelzambelli os predio espelhado que tem no ps5 
+eu fico besta olhando
+no jogo do miranha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">você sabia que o ps5 tem recursos valiosos de criação de conteúdo e entretenimento?
+vem conhecer todos eles aqui --&amp;gt; https://t.co/0apndhhemz https://t.co/6ul9hndfpz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👊 no novo sbt games com suco juice e dessa vez falamos sobre o street fighter e disputamos pra ver quem vai tomar o néctar do capeta! @sbt_games @sbtthenoite
+https://t.co/iejct3vbbh
+https://t.co/iejct3vbbh
+https://t.co/iejct3vbbh
+#games #jogos #streetfighter #ps5 #xboxseriesx https://t.co/hj7dojcaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assim.
+é grande (apesar de ser leve) e bem imponente, tipo o ps5.
+mas é fei que dói. https://t.co/x0ehnrmyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@llinikerpinho14 @avgtzmjoe @penelop_odyssey @joaodorojao @anarcovegana @muitoalemck_ @2casa11 @anarcoboiola @anay_rchist @mano_kobba @darioferrarij @ancaploide @tatianayousef você compara saúde e vidas com ps5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo mundo reunido no quarto da carol pra assistir lbff, eles bem que poderiam aproveitar pra fazer a live do ps5 né, tipo assim, só poderiam né @loud_voltan  e @loud_babi https://t.co/q6fcefve1l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @b11prod: qual o seu favorito?
+#pes2021 #efootballpes2021 #ps5 https://t.co/6cefiwydfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varela pede empréstimo de 5000 reais de gabe para pagar o ps5 do nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rafaelgrn aí a m$ compra a capcom e street fighter vira exclusivo do xbox.
+\-&amp;gt; previsão feita após beber a mesma quantidade de álcool do analista que previu 200 a 300 milhões de ps5 vendidos...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclamam que a criança não sai da frente do pc não vive sem celular e internet aí dão um ps5 pro grto, olha eu nem sei esse pessoal da minha família é tudo doido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quem ficou triste com a expulsão foi o francisco conceição que ia receber uma ps5 como prenda mas agora os 500€ da prenda vão ser usados para pagar a multa da liga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jluiz1981 @netoantonio85 eu acho q a "curvinha" do ps5 deve ser gostosa pra eles se encaixarem. e ai tem a ponta q deixa a cabeça mais alta.
+olhando assim acho q deviam mudar o formato das caminhas dos gatos levando o ps5 como base, parece otimo pra eles haha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yuna_br21 ps5&amp;gt;pc&amp;gt;xbox series x ta bom assim pra você agora? tenha uma boa tarde 🤣🤣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parabens pra minha amigona @vivikkjk pelo ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@cleison67771954 depende. eu ainda prefiro comprar, pelo menos os exclusivos do ps5, em midia física, pois posso parcelar, jogar e revender. a mídia digital não permite parcelamento de forma oficial e muito menos revenda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu tentando seduzir a velha rica pra ela me da um ps5 https://t.co/o46f6jaehw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ynaochorafn vende o ps5 e compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inveja de quem tem um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@vivikkjk o ps5 veio meu deus eu te a,mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @gabrielasgoveia: eu queria era ta de quarentena numa casa com piscina, com um ps5 e muita comida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ps5, #fortnite 
+puzzle no lago da preguiça
+#highlights @brasil_fortnite https://t.co/qpvl1era23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lembrei que ainda não tenho ps5 https://t.co/dj3f7m1fqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@davimouras cara, primeiramente obrigado por manter a sua educação, consigo lhe compreender porém não concordo, uma pessoa que comprou um ps5, e quer piratear console de nova geração, dando prejuízo para uma empresa eu realmente não consigo gostar dessa atitude+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@meirellesbel_ a pessoa tem noção quanto custa um ps5 ?????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@thassius convencer a esposa que é muito importante fazer um investimento de r$ 4.500,00 num ps5 é uma tarefa difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@avibar_ @martinnebelong @andreewallin @luqonhas o cara fez no ps5 mano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um  monte  pra  me  seguir  mas  ninguem  pra  me  dar  um  ps5
+os  de  verdade  eu  sei  quem  sao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alguem, por favor, me dá um controle do ps5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se loko, do jeito que ele falou parece que toda a fanbase já tá no ps5, se abusar essa porra aí nem tem um ps5 tbm kkkkkkk https://t.co/vzzi2qwd6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @fifamanianews: galera quem puder dar uma moral lá no nosso canal do yt vão rolar as finais do torneio de fifa que organizamos com para…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quero um ps5 de presente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@meuplaystation prefiro jogar o marvel ultimate alliance do ps2 doq esse no ps5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@leandroaversam o gráfico de ps5 https://t.co/v2hurpxxfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pensando se lanço outro iphone ou um ps5/ps4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@briequake eu tava toda feliz que tinha gostado do jogo ai vejo o bagulho "ps5" :')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @thiago_xsx: sonystas tentando fazer os updates dos jogos pro ps5 https://t.co/i0aus7xraa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jillxcroft vou ter dinheiro pra comprar um ps5 pra vc e vários jogos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quem não pensou nisso... 😉ps5: dois casos de pessoas que mentiram sobre o console ser outro objeto | video game | techtudo  https://t.co/ahbfse4gh7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@shzumn usa o controle do ps5 dps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tá certa a sony em não fazer retro com ps3, ps2 e ps1.
+1: público da sony é formado de sonystas de ps4.
+2: ngm desses merdas aí teve ps3.
+3: já viu alguma mídia de ps2 e ps1 original? 
+4: sonysta não joga jogo velho.
+5: a maioria só vai pro ps5 em 2026.
+então retro pra quê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - demon's souls (ps5) (9/10)
+t - 20h
+ótimo voltar à souls! no ps5 é lindo. há seus desafios. como joguei os dark souls antes, estranhei o esquema das bonfires nesse, ter que refazer toda a fase é meio cansativo. após farmar souls, ficou bem tranquilo. diria que até fácil. 😅 https://t.co/avmztty5o9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ostralha aonde faz o cadastro para concorrer ao ps5 ? 😅😅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@heyalviverde vc já sentiu muita diferença pra sua @heyalviverde è muito diferente jogando ps5 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu estraguei meu mouse e estou sem, mas eu trocaria facilmente meu ps5 pro um mouse 🥺🥺🥺🥺🥺🥺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu deus tem loja vendendo o ps5 por quase 10 mil reais?????????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pf faz a live do ps5 hoje pq não aguento maissss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@aquelagibbles é pq desenvolver pra vr é uma aposta muito alta. as pessoas querem comprar um ps5, então é seguro que seu produto venda muito mais lá. acho que o vr vai se tornar apenas um complemento para consoles e pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@leandropriorsp @analuizadenovo hummmm círculo colorido na foto... hummmmmmm https://t.co/h0prufoumk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@vivikkjk mandou bem ps5 na estante amanhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@cesaresn único defeito é ser caro kkkk ... meu sonho de consumo ele no ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@edilson_thomas o ps5 deitado supera.
+horrível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @guxxtaaa1: to me sentindo tão incompleto, acho q é a falta de um patrocínio da nike, um ps5 e uma casa própria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu fico completamente chocado com o preço do ps5. virou coisa de elite mesmo. 8 mil um console. tá maluco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odeio o leitor da ps5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@webrothers só espero que o pes continue no ps4 e ps5 e continue option file também.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assassin's creed valhalla demorando pra caramba carregar, alguém me dá um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiquei sabendo que seu irmão tem o ps5 🥰🥰🥰🥰 mas pode ficar tranquila q vim só p te ver https://t.co/pvz21yebrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isso msm ps5, qm disse q foi pra usar vc que eu comprei uma tv? https://t.co/7gvvnuxica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@misterj56569698 @jwpolinice @dhominy00274063 @marcos03885 @huxley17644015 @windowsclubbr aí no ps5 está a mesma merda! 🤣🤣🤣
+e olha que não é nem análise da analista de bits.. vai falar agora que esse outro canal de análise também não é confiável? asno! 🤣🤣🤣 https://t.co/9tr9ff7hqt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impressionante, não tem ps5 pra comprar em lugar nenhum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live desse mentor maravilhoso chamado @kallilaugusto 
+corre que o negócio vai ferver em havana 🌴☠️🌴
+assassin's creed iv black flag - parte 2 [ ps5 playthrough - live ] https://t.co/xb2j7kiduh via @youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@gabepeixe @gabepeixe e já faz um favor meu lindo, coloca o ps5 na mesa que queremos livezinha de fifa tambémmmmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚡🎮 - 🔥missão dada é missão cumprida - barba rosa    🔥🎮 ⚡ wl   - sub 4x - resgate seu ps5 e xbox na loja !! https://t.co/e0ivdsfjdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@revargasbr o ideal seria pegar o ps5 já que assim como vc eu não tive o 4. por outro lado, financeiramente fica muito pesado pq ainda quero pegar o series x. o plano é pegar o ps4, depois vender ele e meu one x pra pegar o series x. kkk gostar de games no br não é tarefa fácil 😂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@meuplaystation a diferença é pouca de jogo do ps4 para ps5, não vale o investimento. vou jogando no meu ps4 até onde der. ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@guilherme_jarb o que tem a ver com o assunto é, você tem jogado apenas demon's souls desde o lançamento do ps5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dixxgarcia só hoje????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@misterj56569698 @joecoolxbox é isso aqui ???? só ? cadê os jogos de ps5 ????? vai dizer que não tem o ps5 e vai culpar o estoque quer ver kkkkkk https://t.co/kqqaljhibs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">será que rola uma streamzinha de cyberpunk no ps5 ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta 8k o ps5? que horror meu deus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@drakesincero1 mas drake, as ferramentas não chegaram e olha que a sony foi pega desprevenida e fez o ps5 às pressas....mas aí tá dando esse erro por que a microsoft demorou mais pra entregar os kits do que a sony...que foi pega desprevenida ...mas...mas.....deixa pra lá. 😆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">só serei feliz quando eu tiver um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@laposesion es para ps4, ps5 xbox pc o q?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@balancogeral tem que comer jornalista na porrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estou sim entrando em td q é promoção de ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@physiquegamepl2 @diegolt85 esperando o lançamento do patch que vai fazer o division rodar em 4k@60fps cravados no ps5 e com loads de menos de 1 segundo para valer o ssd alienígena de tamanho menor...
+quando aparecer esse patch, volta aqui e posta que o division está dando ao menos 50% de banho no sx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passando pra lembrar com a arte mais aleatória e mal feita que você verá na vida, que o sorteio do ps5 + 8 jogos para subs será amanhã a partir das 14h na twitch.
+📹 ao vivo, link na bio!
+🫂 apoio
+🎮 7 jogos oferecidos pelo @fakedfabricio
+🎮 1 jogo oferecido pelo @viktores123 https://t.co/9xlfcdla7t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o único erro dele foi comprar um ps5 https://t.co/vad3drkmpk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@digoudug eu instalei só pra ver como roda no ps5 ... mas eu gosto de sofrer e to quase jogando pela terceira vez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@saraivito tem uma opção ai no seu ps5, só clicar e de resto a gente se vira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@monster_maraj @noobslr @talkyctr51 @windowsclubbr sony sim. ou você é vidente e sabe tudo que será disponibilizado no pc? vai ficar sonhando com jogo first party do ps5 no pc e esperar começar uma nova geração para ver se sai no pc algum dia? só se for otário! xbox sai tudo day one no pc. inclusive gears tactics saiu antes no pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo o vgchartz, vendas do ps5 atingiram 6 milhões de unidades https://t.co/562h5gc3um https://t.co/uovdjku2js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@heyalviverde o respeito pelo ps5 ali..... ❤️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonhei que eu comprava meu ps5, acordei com depressão pq era só um sonho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@davidcuia @br_spidey lê! campeonatos? estou falando de jogos de luta, e os maiores estão no xbox também.
+agora, só por ser japonês vai sair muitos jogos de luta japoneses só no ps, mais ou menos como persona. e sf5 é financiado pela sony, o 4 tem no xbox também. joga killer instinct no ps5 então...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@marcellopaz @marcos03885 @misterj56569698 @huxley17644015 @windowsclubbr se está assim, então o series x está rodando melhor que os dois.. 
+mas em outros jogos..
+os devs não lançaram patch de correção para o ac valhalla no series x, portanto, o ps5 está rodando com a otimização melhor. https://t.co/gjkc5anf5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fielus bom, pra comprar um ps5 já precisa fazer uma hipoteca na casa, então bem capaz sim no futuro hahahahahahaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@xleozbr um dia eu pego um ps5 kkkkk por enquanto tá foda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@saaditquoilesbg fdp t’as la ps5 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@thiago_silvadra esse estúdio é multi mano, é o mesmo que fez o bruxa de blair que logo em seguida saiu pro ps também. não duvido que essa sairá para o ps5 também.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@playstation_br eu quero comprar o ps5 só que não tem em nenhuma loja física decente nem nos ecommerce. @playstation_br @sonybrasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @playstation_br: retorne a midgar em final fantasy vii remake intergrade, uma versão do clássico instantâneo do ano passado aprimorada p…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @future1904: sem ser a ps5 que esta sempre down, estou a 2 meses numa fila de espera e ainda nada 😔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@windowsclubbr ps5 é o verdadeiro monstro e nem os 12 teraflops do xibóquinha foi pareo 🤣🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@nezukowom meu ps5 vem em dezembro do ano que vem eu acho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoongi me dá um ps5 e o project diva arcade por favor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@emls @playstation @cocacola me da um ps5 sou br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@flaviopsn @baltazardarocha @drakesincero1 @fuck_off_matt @yuna_br21 @lord_psmg @brianscott132 @id_folkvang @hscpedro @br_spidey eles precisam se decidir. ou diz que a sony foi pega desprevenida e fez o ps5 às pressas ou diz que a microsoft demorou pra entregar os kits e a sony saiu na frente. os dois não dá 😆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queria ou ps5 ou ps4 quem me doa um ai pra mim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@darealbandicoot i prefer ps5 ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @meuplaystation: você está preparado?
+https://t.co/alm0vmedii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thomas puha, da remedy, compara control na ps5 e xbox series x.
+https://t.co/iufyteyow2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@meuplaystation só vou ter esse ps5 daqui 12/15 anos, espero que tenha mais funções até la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a starry ostara festival
+@assassins_uk @ubisoft #assassinscreedvalhalla #virtualphotography #simpleshotsaturday #vpgunite #worldofvp #artisticofsociety #ps5 #ps5share https://t.co/qiixyhli4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@nextgenplayer séries x is a alternative to pc not ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @meuplaystation: conheça o controle revolucionário do ps5
+https://t.co/l7erxwo7lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me apresente a fonte com a informação que the medium chegara ao ps5 https://t.co/pqz8edbbw0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@meirellesbel_ kkkkkk tmlc cara ps5 é quentíssimo, fora que vale uma nota, se fosse eu trocava na hora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hsksexy você quer que eu troque o ps5 por um açaí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @spfc_vitu: mo tristeza parece q quebraram um ps5 na minha frente e eu nao pude fazer nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @confissoesdoce: pai de ps5 https://t.co/cesgbgkqqb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mmariaasoares e do ps5 ✨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@felipecsantos17 que legal! eu resolvi pegar o ps5, pois não tive ps4 na geração passada e agora consigo aproveitar os games das duas gerações, assim como os games do xbox, xbox 360 e xbox one no meu one x. no final do ano, pretendo pegar o series s ou x, dependendo da situação econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @joecoolxbox: a aim controllerss ficou responsável por personalizar os controles de xbox na promoção do jogo the medium.
+a caixa deles p…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@trhzcroft adoro jogo de monstro,me apaixono de vdd triste é que eu ainda preciso de um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galera quem puder dar uma moral lá no nosso canal do yt vão rolar as finais do torneio de fifa que organizamos com para o @mackenzie1870  valendo um ps5 !!!
+https://t.co/9yzykc6jcb https://t.co/l325dc3911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se eu tivesse um ps5 meu menor problema seria com o ps5, sony, tenha dó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim amigão vai dominar sim, o the international vai ser no ps5 n no pc. vai te fude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brabíssimo no game #warzone #warzoneclips #ps5 #twitch 
+https://t.co/ouqlusjwni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@artturer @vinix_ofc fds, eu tenho o ps5 https://t.co/oeniymvddr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enfiar essa minha vontade de live de ps5 pelo meu c* e sair rodando que nem uma beyblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jonatas_lucca17 "ps5 vai substituir o pc" https://t.co/9qkpflqdmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu queria era ta de quarentena numa casa com piscina, com um ps5 e muita comida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@lgdobrasil carambaaa... deve ser show jogar um ps5 numa monstra desta!!!!!!!!
+tenho uma lg webos ai thinq e eu amo, e jogar meu ps4 nela é show de mais, da de 10 na minha sansung... estou amando está linha da lg ai thinq... imagina um ps5 nesta monstra🤩 um dia eu consigo 😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@igorseco como é que eu vo plantar um ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q mulher oq eu quero é um ps5 e um fifa 21 fds o resto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabaoporque fabião, vou comprar pro ps5 em meados do ano. e pelo o que vi, a lg oled de 55p pra cima é a que mais atende. agora se você quer pra fins de assistir diboa e séries... a melhor são as da samsung mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@word_newss2 kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@omarcosveras fotos antigas do mês passado.
+deus meu, mano 😂😂😂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alguém me dê uma ps5 só pra eu jogar ratchet clank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabiofreire666 @diegolt85 gostando de ver sua estatística furada. ja sabe que os alguns dos games q citou, cyberpunk, division, e outros estão sem patch, rodando melhor pela retro pelas versões serem melhor bo serie x. e contando vitória com isso? outiriders ta c mais resolucao no x e melhor textura ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@playstation_br eu infelizmente nao tenho um game favorito pela impossibilidade de jogar, me manda um ps5 @playstation_br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@leonardoluuuck dlc do final fantasy vii remake só pro ps5 🤡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@apropriaip irmã compra um ps5 p mim?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a organização de classificação de videojogos alemã classificou star wars jedi: fallen order para a nova geração de consolas. https://t.co/ysweicytvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps5 você pode expandir seu armazenamento? ps5 você tem vrr ou allm? ps5 você tem atmosfera? 🤣🤣🤣 o ps5 é um console de brincadeira do wilson do joker
+￼ https://t.co/gdlfqncy2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabiofreire666 @diegolt85 talvez pq a dev de control n fez um.jogao pro ps4 ne, e q vai att pro ps5. agora pq elas n lancaram games  na virada pra next gen , elas sao fracas, sem credibilidade?😀 ta dando preguiça mano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@baltazardarocha é muito fácil vencer ela nesse "arjumento" só deixa meu ps5 ligado um jogo deixar as horas rolarem essa mina é patética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china pede empréstimo de 5000 reais de kayky para pagar o ps5 do victor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @jogandosemhype: retirei esses quadros de matérias de março de 2020 mostrando qual seria o custo de montar um pc gamer com capacidade se…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vou enlouquecer se não tiver ps5 nas lojas logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem ser a ps5 que esta sempre down, estou a 2 meses numa fila de espera e ainda nada 😔 https://t.co/xcpazqi9h2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifa 21: em busca da copa ea online no ps5 - ao vivo! https://t.co/lriqiqxmnj via @youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jonatas_lucca17 eu sozinho vou comprar uns 90 milhões de ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queria muito um ps5 vejo esses jogos só da mais vontade só jogo foda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@montzinn pega do ps5 po tá o msm preco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@samuel_reis6 come a velha  e ainda volta de ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@marcos03885 @jwpolinice @dhominy00274063 @daniel_xbox127 @huxley17644015 @windowsclubbr ué cara. são 12tflops, rdna2 full, mesh shaders e a porra toda pra cair de 15-25fps em joguinho de desenho da última geração, com resolução igual? sem contar no espaço de armazenamento ser muito melhor otimizado no ps5, basta olhar pra crash4, control e avengers. diferença enorme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@henrikeenc me desculpe por descobrir que não se deve roubar o ps5 de um familiar 😔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @oneforthelouis: @goldencrs harry 🤝 danny 🤝 tom: foto gostoso muito biscoito subindo pelas paredes 
+dougie: eai galerinha meu ps5 chego…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qual o seu favorito?
+#pes2021 #efootballpes2021 #ps5 https://t.co/6cefiwydfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bom, já que falta muito dinheiro para um ps5 e falta dinheiro para um ps4, vamos espremer um pouco mais do ps3 https://t.co/lmws3wlvj2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alguém com ps5 para uma amizade sincera e verdadeira? 👀 https://t.co/pt98qqvn5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saudades do meu ps5 que eu ainda não tenho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @drakesincero1: mais um rodando melhor no ps5, cadê  a galerinha do poder? cadê  o mendiguff pra falar qur o ps5 não  existe. xbox = ilu…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kodalif @avgtzmjoe @penelop_odyssey @joaodorojao @anarcovegana @muitoalemck_ @2casa11 @anarcoboiola @anay_rchist @mano_kobba @darioferrarij @ancaploide @tatianayousef ou seja, pelo mesmo motivo q ps5 não é direito universal, é o mesmo q a saúde ou qualquer serviço, a escassez. o direito de não ser assassinado pode ser respeitado infinitamente por todos, o de sempre dar recursos a todos não, isso não é direito é uma oferta, um serviço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@playstation_br pena que o horaizon nao sai dos 30fps no ps5 :/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @reloadingbr: já saiu @reloadingbr #304 - atualize-se, gamer! 
+game pass cheio de novidades, jade raymond fazendo jogo para a playstati…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💥ps5 // dia de wl é dia de supeerar só vamo  + pp do objetivo   8/0
+💥 vem pra  live  💥 seja um sub e tenha beneficios
+https://t.co/tkkl0fmcak
+https://t.co/tkkl0fmcak
+https://t.co/tkkl0fmcak
+https://t.co/tkkl0fmcak https://t.co/wlfdupwejl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toda vez q eu vejo alguém falando de ps5 nesse site eu entro em depressão https://t.co/e5c4zptx0b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @adrenaline: sony apresenta novo controle de realidade virtual para ps5 https://t.co/v70qirqjta https://t.co/3g1w9kqj55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@_evertroll foi se esqueceu de um detalhe: foi lançado originalmente para o ps5.
+essa dlc do gears e esse gears que já foi exclusivo de pc, foi lançado originalmente para o sx? para a comparação fazer sentido? me diga aí por favor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porra sera q n tem ninguem q compre um pack do pezin masculino n???? na moral eu quero comprar um ps5 tb cara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é sério isso vodacom quer ofereçer prémio de ps5 hiiiii,, acho que estão a emitar aqueles de google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pedrowilson3181 @_evertroll ele citou o demon souls pra justificar o porque dele dizer isso. ou seja: o xbox tem uma line up gigante por conta da retro, já que o demon souls é um game de ps3.
+seguindo essa lógica: o ps5 também tem uma line up gigante. já que tem retro também.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@guilherme_jarb o upgrade do metro exodus vai ganhar tudo que você falou que só era possível se o jogo tivesse sido projeto pra nova gen, ou seja, você está errado e tudo que tu falou pode sim ser adicionando a jogos que não foram projetados pra ps5, por exemplo. é simples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to jogando o god of war de novo no ps5, né? daí que eu tava jogando lá, em 60fps, e resolvi colocar no outro modo, em 30, para ver se a diferença era tão grande assim.
+eu não tava preparado pra isso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fllfvii só do triste com a square que o final fantasy xvi vai ser exclussivo do ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@carolis se eu tivesse dinheiro agora, comprava um ps5 e ficaria feliz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@cabecinhafudida @g0m3s__ @wondermyy cara, não sei se você sabe mas a classe operária das empresas que criam jogo tem que receber pela criação deles.
+eu me expressei muito mal aqui, eu estava me referindo a pessoas com menos de um salário mínimo ou salário-mínimo, essas pessoas não precisam comprar um ps5 ou xbox sx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o ps5 foi adiado pcausa do covid eu não toooo acreditando nisso quero me mata vai toma no cu do bolsonaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@_evertroll não apenas o demon souls, tem o: miles morales, astro's playroom e sackboy: a big adventure. 
+eu nada, nem tenho o ps5 ainda kkk! wtf. e nem pretendo comprar agora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@thiago74497679 @raimylp @pacta_serv isso tem no ps5...
+a questão é que no ps5 vc pode escolher jogar a versão de ps4 no ps5, mesmo tendo uma versão next-gen do game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @alexlucche: já vai começar! vem! https://t.co/xwqg1kdtmb #twitch #twitchbr #twitchbrasil #livestream #streaming #videogame #ps5 #xbox …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simples o motivo: o seu amigo joe cool, colocou "60% jogos exclusivos temporários" de ps5. também usei isso só que de forma ao contrária, com o xbox. por isso eu disse que há possibilidade do game sair para o ps5 por "ns" fatores.
+não me importo, caso era essa a resposta... https://t.co/jtynqfpzj7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dxvileyescome @bosslogic a pandemia atrasou a produção de tudo, até os consoles encareceram pq não tão com o mesmo ritmo de maquinário... vou esperar pra comprar meu ps5 quando as coisas melhorarem e aí vem logo esses 3 mais hogwarts legacy, o jogo do miles e tem uns dois que quero de star wars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rezendethexx queria kkkkk imagine um pc gamer e um ps5 aaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@not_braveenough acho mais bonito q o ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @pandiviss: scarlet nexus contará com smart delivery no xbox e terá opção de upgrade gratuito do ps4 e ps5, além de poder levar o save.…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ericflix3 @baltazardarocha kkkkk em vez de aumentar a potência o ps5 faz e diminuir e melhorar o desenpenho kkkk em relação ao merda box sx!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@vivikkjk amg se tu ganhar vai ser o ps5? socorro amei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morrendo de vontade de comprar um ps5 e puto pq não tenho um cartão de crédito pra isso
+af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kaiquebritor e desde quando a opinião de um safado dançarino fodedor de nike conta pra alguma coisa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@revargasbr o artigo é de outubro do ano passado e acho que deu uma forçada gigantesca. se somar as vendas de todos consoles da geração passada não se atinge nem 300 que dirá 700. além disso ele cita que o ps5 poderia substituir os pcs, isso é uma completa loucura na minha opinião.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hsksexy ah, não muito. um ps5 já tá de bom tamanho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hatefulgus @_evertroll vc viu a data que lançou o game para o ps5? então.
+não só loadings rápidos como: ray tracing, cenários mais bem detalhados, e entre umas outras coisas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ostralha mas que filho da puta. faz ele pagar um ps5 pro navi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@deporteskc pregunta rapida ps5 o xbox seires x?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mr_mirand4 @arttsick vai jogar no teu ps5 vai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sete e meia da noite e eu nem almocei meu alimento foi games no pc games no ps5 e games no switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hatefulgus o game foi realmente projetado para o ps5, e lançado originalmente para o console, e não tempos depois como uns games que o seu amigo citou. tem esse detalhe também.
+e como eu disse numa outra discussão nossa, não quero criar uma discussão gigante lembrado as minhas épocas de f.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@daniel_xbox127 @marcellopaz @misterj56569698 @jwpolinice @dhominy00274063 @marcos03885 @huxley17644015 @windowsclubbr eu queria era a id dessa galera que defende o ps5 na internet kkkkkk se jogasse o tanto que fala bosta... não teriam tempo pra falar tanta bosta kkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@joecoolxbox ate que digam q iss foi erro de grafica kkkkk ele tem td pra sair no ps5 https://t.co/u10llbzs3n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu sonho era que minha irmã arrumasse um namorado com ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">era só um ps5 na minha vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#demonssouls #ps5                                    imagens de dor e sofrimento https://t.co/9eakzux4km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rafael_mdf0 ahhh pra pc tem q ser um sinistrão kkkkkkk
+jogo no xbox msm, mas vou pegar a nova geração (series x ou ps5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu ps5 só vai chegar no final de abril 😩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@guilherme_jarb @_evertroll que diferença faz ter sido lançado no primeiro dia pra nova geração, se o jogo já está lá de qualquer jeito?
+na prática a diferença é zero. se miles fosse lançado 3 meses depois pra ps5, o jogo continuaria igual.
+só lembrando que a dlc foi lançada originalmente pro xsx|s sim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@pedrosolonassis @mliviacunha esperando chegar o ps5 que ele pediu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu tô muito confusa, parece que estou vendo um dos jogos pra ps5 e não um filme em si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@nathanst98 verdade, por isso nunca saíram no ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#discoelysium chegará ao ps4 e ps5 no final do mês com novidades no gameplay como dublagem completa e uma área nova no mapa, além de otimizações para o novo console, como 4k e 60fps.
+disco elysium the final cut chegrá no dia 30 de março. https://t.co/5qajlnlnhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">só queria um ps5! 😢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @debackerthe1: homem compra ps5 e tenta enganar esposa dizendo que o console era um roteador https://t.co/zy4wst2tp8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jonatas_lucca17 se nem o ps4, q ficou basicamente sem competição no começo da gen, e se estabeleceu no final, conseguiu vender mais q o ps2. o ps5, com competição forte da nintendo e da ms, se brincar num passa nem do ps4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@thiago_silvadra isso é mais do que óbvio, como mostrei nesse print e numa matéria falando sobre isso.
+uma coisa engraçada: algumas matérias apontando o the medium sair pro ps5, é fake e não foi confirmado. kena nem rumor de sair pro xbox tem direito, mas vai sair, confia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@dubblez_ quem desbloqueou não perdeu , pode usar normalmente, apenas a progressão dela que eles bloquearam. se quiser pode usar.. porém jogo no ps5 será que da?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novidades para marvel's #avengers também foram anunciadas. primeiro foi a expansão operation hawkeye que focará no gavião arqueiro e o trailer destacou também a chegada do jogo para a #ps5 e #xboxseriesx com 4k a 60fps, loading mais rápidos e etc. https://t.co/0kkqzp5tc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mavdogoverno kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk kkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@teccell_18 ps5 im var???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">será que meu primo rico tem o ps5? fica ai o questionamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dei martch com a coroa de 40 anos, ps5 tá chegando família 😎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os gráficos do ps5 tão uma maravilha :0 https://t.co/tvqduxy2rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fabiofreire666 @physiquegamepl2 atualizou a versão do ps5 do the division 2...e caiu pra 1080p kkkkk ou seja, compete com a versão de series s kkkkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@strwbrryboy pede o ps5 ja fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@_evertroll @pastorxbox vai ser lindo o ps5 travando no meio da competição, e o controle puxando o personagem para trás ou para frente sozinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muito estranho que já tem o ps5 e o xbox novo por aí nunca mais vi nada sobre esse dois depois do lançamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@drakesincero1 agora não tem desculpa, os dois tão em 4k dinâmico, sombra do ps5 tá melhor e fps tá mais estável  😂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @pastorxbox: pós compra da evo: analista diz que as vendas do ps5 ultrapassarão 200 a 300 milhões de unidades em 5 a 6 anos e que o ps5…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@hazukifc @_evertroll e o pior como vai substituir o pc se o ps5 nem browser tem por medo do gamepass ultimate via xcloud no browser. só em pensar nisso a sony nem colocou no console pq os sonystas iriam assinar o gamepass ultimate e iriam jogar, e a sony não teria como lucra encima disso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @meuxbox: vgchartz divulga as vendas globais do xbox series x|s e ps5
+» https://t.co/rg7hefudgb https://t.co/dslv0g6a6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @thassius: a que ponto chegamos? 🥴
+o cara mentiu para a esposa: disse que o ps5 na verdade era um roteador wi-fi.
+ainda chamou um técn…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @kauanz17: q mulher oq eu quero é um ps5 e um fifa 21 fds o resto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meu white people problem: comprei um ps5 e não tenho jogo pra jogar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rt @oldvx: mo tristeza parece q quebraram um ps5 na minha frente e eu nao pude fazer nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@rikaanticristo unica vez foi ele falando q ela n era fraca lindo  mito feministo agora mim compra 1 ps5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@palmeiras_vk já vem no ps5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@joecoolxbox não tem somente isso, como vc pode perceber num outro tweet além desse acima, tem mais coisas sobre the medium no ps5.
+o tempo nos dirá quem estava certo realmente no final das contas, pra acabar logo com essa discussão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vr do ps5 terá dualsense também! entenda: https://t.co/w4ist6fllw https://t.co/ii5udluf1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@gramiliki_ eu jogo persona 5 no ps5 reclamando que esse jogo teria uma experiência muito melhor no modo portatil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no ps5 deve melhorar... #ps4share
+https://t.co/kwyqrbcx8v https://t.co/xypsyqcebx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@wesident só upar o save, logar no ps5 e pronto.
+a única diferença é que o xbox upa o save automaticamente, acho que ele nem deve saber.
+pergunta a ele o que acontece na hora de tentar excluí um save no xbox pra vê o que acontece 🤣
+se você não excluí o save de todos os lugares, ele volta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a tristeza que da só de saber que esse jogo vai ser pra ps5 https://t.co/cqjgs9auz3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bora começar o god of war finalmente no ps5! vem pra live grrrrrr https://t.co/gdq9k98w0z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@jonatas_lucca17 @xrobinblack nem se somar as vendas do xbox sx/s e ps5 vai dar esse número kkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">às 19h30min vai ter live!!! https://t.co/xwqg1kdtmb #twitch #twitchbr #twitchbrasil #livestream #streaming #videogame #ps5 #xbox #pcgamer #games #gamerbr #liveontwitch #sony #playstation #streamon #liveon #streamernatwitch #twitch #meucanalnatwitch #afiliadotwich https://t.co/klj9rsoetv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olá meu povo vou listar coisas que eu quero começando por uma pizza tamanho família de frango com catupiry, cartão de crédito, um ps5, um pc gamer, ser patrocinado pela razer, gucci e nike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eu tô com notebook e celular ligado pesquisando lojas br q tão com lote de ps5 já 
+mas os cara tá fritando o bagui n lança..
+eu odeio cambistas com todas as minhas forças!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@br_flesh a do ps5 tomará que a sony quando liberar o slot que a gente possa colocar de pc pq ai o valor cai pela metade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@praia2011 @not_braveenough pelo incrivel q pareça mesmo eu sendo caixista eu acho o ps5 muito bonito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alguém ai que joga ps4/ps5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neymar
+#efootballpes2021 #pes2021 #ps5 https://t.co/pctvhzpipb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qual sua psn? quais jogos você joga? — nao tenho psn😔 n tenho console, n tenho pc bom, tenho nada........ 😔😔 aliás quem quiser me doar um ps4/ps5 estou a disposição https://t.co/mj6v4zlwca</t>
+  </si>
 </sst>
 </file>
 
@@ -1649,7 +2765,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1687,6 +2803,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1741,7 +2863,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1756,6 +2878,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1778,13 +2904,13 @@
   </sheetPr>
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A152" activeCellId="0" sqref="A152"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A152" activeCellId="1" sqref="B1 A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="225.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="225.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -4215,10 +5341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A171"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4226,861 +5352,4020 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="226.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="215.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="282.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="249" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="260.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="485.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="417.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="226.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="226.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="159" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="159" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="282.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="282.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="192.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="440.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="215.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="440.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="451.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="440.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="215.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="440.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="249" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="294" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="429" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
+      <c r="B171" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B322" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B326" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B327" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B328" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B342" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B347" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B348" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B349" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B350" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B352" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B353" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B354" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B356" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B358" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B360" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B361" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B364" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B369" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B370" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B371" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B372" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B373" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B374" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B375" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B376" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B377" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B378" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B379" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B380" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B381" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B382" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B383" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B384" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B385" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B386" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B388" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B389" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B390" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B391" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B392" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B393" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B394" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B395" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B396" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B397" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B398" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B399" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="B400" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B401" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B402" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B403" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B404" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B405" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B406" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B407" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B408" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B409" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B410" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B411" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B412" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B413" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B414" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B415" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B416" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B417" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B418" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B419" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B420" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B421" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B422" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B423" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B424" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B425" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B426" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B427" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B428" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B429" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B430" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B431" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B432" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B433" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B434" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B435" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B436" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B437" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B438" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B439" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B440" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B441" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B442" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="B443" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B444" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B445" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B446" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B447" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B448" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B449" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B450" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B451" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B452" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B453" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B454" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B455" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B456" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B457" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B458" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B459" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B460" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B461" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B462" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B463" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B464" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B465" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B466" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="B467" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B468" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B469" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B470" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B471" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B472" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B473" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B474" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B475" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B476" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B477" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B478" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B479" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B480" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B481" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B482" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B483" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B484" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B485" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B486" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B487" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B488" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B489" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B490" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="B491" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B492" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B493" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="B494" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B495" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="B496" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B497" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B498" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B499" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B500" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
